--- a/transacoes.xlsx
+++ b/transacoes.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="150" yWindow="525" windowWidth="15015" windowHeight="5070" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Transações" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,16 +413,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13.42578125" customWidth="1" min="2" max="2"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -478,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>xxx</t>
+          <t>Pão</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,12 +486,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>xx</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cartão</t>
+          <t>Pix</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -503,38 +501,38 @@
         <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>09:38:01</t>
+          <t>09:29:06</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Entrada</t>
+          <t>Saída</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ubre</t>
+          <t xml:space="preserve"> Uber</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Esposte</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>789</t>
+          <t xml:space="preserve"> 5.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fiado</t>
+          <t>Pix</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -544,38 +542,38 @@
         <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>09:38:01</t>
+          <t>09:29:29</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Entrada</t>
+          <t>Saída</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ubre</t>
+          <t>op</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Esposte</t>
+          <t>Lazer</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fiado</t>
+          <t>Dinheiro</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -585,11 +583,11 @@
         <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>09:38:01</t>
+          <t>09:58:41</t>
         </is>
       </c>
     </row>
@@ -601,17 +599,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>uber</t>
+          <t>dinheiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Salário</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -626,544 +624,11 @@
         <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10:05:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dsad</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Transporte</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> dasds</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>13</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>10:05:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> mais uma </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Empréstimos</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 789</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Cartão</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>13</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>10:05:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Primeira</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Alimento</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Dinheiro</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G8" t="n">
-        <v>9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>13</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>10:09:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>primeiro</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Alimento</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Dinheiro</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>13</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>10:10:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> segundo</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Transporte</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 987</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Cartão</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>13</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>10:10:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Terceiro</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Salário</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 654</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G11" t="n">
-        <v>9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>13</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>10:10:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> quarto</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Lazer</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3257</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Fiado</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>13</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>10:10:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> quinto</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Transporte</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 358</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Dinheiro</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G13" t="n">
-        <v>9</v>
-      </c>
-      <c r="H13" t="n">
-        <v>13</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>10:10:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Alimento</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Dinheiro</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>13</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>10:19:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> d</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Transporte</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Cartão</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>13</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>10:19:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> g</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Transporte</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 516</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G16" t="n">
-        <v>9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>13</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>10:19:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>sd</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Alimento</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>dd</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Dinheiro</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>13</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>10:28:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> gfg</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Transporte</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> gljngj</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Fiado</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G18" t="n">
-        <v>9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>13</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>10:29:05</t>
+          <t>10:33:50</t>
         </is>
       </c>
     </row>

--- a/transacoes.xlsx
+++ b/transacoes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,170 +468,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Pão</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Alimento</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G2" t="n">
-        <v>9</v>
-      </c>
-      <c r="H2" t="n">
-        <v>14</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>09:29:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Uber</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Transporte</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9</v>
-      </c>
-      <c r="H3" t="n">
-        <v>14</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>09:29:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>op</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Lazer</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Dinheiro</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>09:58:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>dinheiro</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Salário</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>14</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>10:33:50</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/transacoes.xlsx
+++ b/transacoes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,88 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>jityui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Transporte</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Cartão</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>10:40:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> jhj</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Alimento</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Cartão</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>17</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>10:41:05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/transacoes.xlsx
+++ b/transacoes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,88 +468,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>jityui</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Transporte</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Cartão</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G2" t="n">
-        <v>9</v>
-      </c>
-      <c r="H2" t="n">
-        <v>17</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>10:40:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> jhj</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Alimento</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 250</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Cartão</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9</v>
-      </c>
-      <c r="H3" t="n">
-        <v>17</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>10:41:05</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/transacoes.xlsx
+++ b/transacoes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,94 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Salário</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5450</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>10:47:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> maco</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Lazer</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 897</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>18</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>10:47:54</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/transacoes.xlsx
+++ b/transacoes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,17 +476,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Mesada</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Salário</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Salário</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5450</t>
+          <t>500</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -494,24 +494,18 @@
           <t>Dinheiro</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="F2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>18</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10:47:33</t>
+          <t>16:29:16</t>
         </is>
       </c>
     </row>
@@ -523,7 +517,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> maco</t>
+          <t xml:space="preserve"> bombom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -533,12 +527,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 897</t>
+          <t xml:space="preserve"> 55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dinheiro</t>
+          <t>Pix</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -552,7 +546,177 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10:47:54</t>
+          <t>16:30:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> gdfg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Moradia</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 897</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cartão</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>16:31:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> gfdgf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Transporte</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>18</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>16:32:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>sida</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Alimento</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>18</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>16:43:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 89</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Transporte</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dinheiro</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>18</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>16:43:56</t>
         </is>
       </c>
     </row>

--- a/transacoes.xlsx
+++ b/transacoes.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mesada</t>
+          <t>Salário</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>4892</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,11 +501,11 @@
         <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>16:29:16</t>
+          <t>11:07:28</t>
         </is>
       </c>
     </row>
@@ -517,17 +517,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> bombom</t>
+          <t xml:space="preserve"> Uber</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lazer</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55</t>
+          <t xml:space="preserve"> 5.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -542,11 +542,11 @@
         <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>16:30:01</t>
+          <t>11:07:44</t>
         </is>
       </c>
     </row>
@@ -558,17 +558,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gdfg</t>
+          <t xml:space="preserve"> pão</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Moradia</t>
+          <t>Alimento</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 897</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -576,92 +576,92 @@
           <t>Cartão</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>16:31:00</t>
+          <t>11:08:18</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Entrada</t>
+          <t>Saída</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> gfdgf</t>
+          <t xml:space="preserve"> Festa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Lazer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>897</t>
+          <t xml:space="preserve"> 256.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dinheiro</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>18</v>
+          <t>Fiado</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>16:32:45</t>
+          <t>11:14:54</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saída</t>
+          <t>Entrada</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sida</t>
+          <t>dfr</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Alimento</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dinheiro</t>
+          <t>Fiado</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -671,38 +671,38 @@
         <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>16:43:32</t>
+          <t>12:06:28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Entrada</t>
+          <t>Saída</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89</t>
+          <t>cerveja</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Lazer</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89</t>
+          <t>89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dinheiro</t>
+          <t>Pix</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -712,11 +712,11 @@
         <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>16:43:56</t>
+          <t>13:54:19</t>
         </is>
       </c>
     </row>

--- a/transacoes.xlsx
+++ b/transacoes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,258 +468,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Salário</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Salário</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4892</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Dinheiro</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G2" t="n">
-        <v>9</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>11:07:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Uber</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Transporte</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9</v>
-      </c>
-      <c r="H3" t="n">
-        <v>21</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>11:07:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> pão</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Alimento</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Cartão</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>11:08:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Festa</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Lazer</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 256.59</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Fiado</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>11:14:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>dfr</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Fiado</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>21</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>12:06:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>cerveja</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Lazer</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>21</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>13:54:19</t>
-        </is>
-      </c>
-    </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/transacoes.xlsx
+++ b/transacoes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,7 @@
       </c>
     </row>
     <row r="2"/>
+    <row r="3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/transacoes.xlsx
+++ b/transacoes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,8 @@
     </row>
     <row r="2"/>
     <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/transacoes.xlsx
+++ b/transacoes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="156" yWindow="528" windowWidth="15012" windowHeight="5076"/>
+    <workbookView xWindow="150" yWindow="525" windowWidth="15015" windowHeight="5070"/>
   </bookViews>
   <sheets>
     <sheet name="Transações" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="196">
   <si>
     <t>Tipo</t>
   </si>
@@ -940,18 +940,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="J205" sqref="J205"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1016,8 +1016,8 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>30</v>
+      <c r="D3" t="s">
+        <v>73</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>14</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>14</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>14</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>14</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>14</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>14</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>14</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>14</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>14</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>14</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>14</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>14</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>14</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>14</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>14</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>14</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>14</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>14</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>9</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>9</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>14</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>9</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>14</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>14</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>14</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>14</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>14</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>14</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>14</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>14</v>
       </c>

--- a/transacoes.xlsx
+++ b/transacoes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="200">
   <si>
     <t>Tipo</t>
   </si>
@@ -602,6 +602,18 @@
   </si>
   <si>
     <t>13.18</t>
+  </si>
+  <si>
+    <t>Cartão</t>
+  </si>
+  <si>
+    <t>Fiado</t>
+  </si>
+  <si>
+    <t>Outro</t>
+  </si>
+  <si>
+    <t>Dinheiro</t>
   </si>
 </sst>
 </file>
@@ -637,8 +649,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1059,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="F4">
         <v>2024</v>
@@ -1098,7 +1111,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="F6">
         <v>2024</v>
@@ -1150,7 +1163,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F8">
         <v>2024</v>
@@ -1202,7 +1215,7 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F10">
         <v>2024</v>
@@ -1254,7 +1267,7 @@
         <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="F12">
         <v>2024</v>
@@ -1332,7 +1345,7 @@
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="F15">
         <v>2024</v>
@@ -1358,7 +1371,7 @@
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="F16">
         <v>2024</v>
@@ -1436,7 +1449,7 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F19">
         <v>2024</v>
@@ -1514,7 +1527,7 @@
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F22">
         <v>2024</v>
@@ -1618,7 +1631,7 @@
         <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F26">
         <v>2024</v>
@@ -1696,7 +1709,7 @@
         <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F29">
         <v>2024</v>
@@ -1774,7 +1787,7 @@
         <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="F32">
         <v>2024</v>
@@ -1878,7 +1891,7 @@
         <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="F36">
         <v>2024</v>
@@ -1956,7 +1969,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F39">
         <v>2024</v>
@@ -2034,7 +2047,7 @@
         <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F42">
         <v>2024</v>
@@ -2120,7 +2133,7 @@
       <c r="G45">
         <v>9</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="1">
         <v>9</v>
       </c>
     </row>
@@ -2138,7 +2151,7 @@
         <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F46">
         <v>2024</v>
@@ -2190,7 +2203,7 @@
         <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F48">
         <v>2024</v>
@@ -2294,7 +2307,7 @@
         <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F52">
         <v>2024</v>
@@ -2372,7 +2385,7 @@
         <v>88</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="F55">
         <v>2024</v>
@@ -2450,7 +2463,7 @@
         <v>93</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="F58">
         <v>2024</v>
@@ -2528,7 +2541,7 @@
         <v>38</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="F61">
         <v>2024</v>
@@ -2606,7 +2619,7 @@
         <v>96</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="F64">
         <v>2024</v>
@@ -2684,7 +2697,7 @@
         <v>97</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F67">
         <v>2024</v>
@@ -2736,7 +2749,7 @@
         <v>99</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F69">
         <v>2024</v>
@@ -2800,7 +2813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2814,7 +2827,7 @@
         <v>90</v>
       </c>
       <c r="E72" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F72">
         <v>2024</v>
@@ -2892,7 +2905,7 @@
         <v>103</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F75">
         <v>2024</v>
@@ -2944,7 +2957,7 @@
         <v>105</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="F77">
         <v>2024</v>
@@ -2956,7 +2969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2996,7 +3009,7 @@
         <v>106</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F79">
         <v>2024</v>
@@ -3048,7 +3061,7 @@
         <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F81">
         <v>2024</v>
@@ -3126,7 +3139,7 @@
         <v>109</v>
       </c>
       <c r="E84" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F84">
         <v>2024</v>
@@ -3190,7 +3203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -3204,7 +3217,7 @@
         <v>35</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F87">
         <v>2024</v>
@@ -3256,7 +3269,7 @@
         <v>33</v>
       </c>
       <c r="E89" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="F89">
         <v>2024</v>
@@ -3308,7 +3321,7 @@
         <v>112</v>
       </c>
       <c r="E91" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F91">
         <v>2024</v>
@@ -3386,7 +3399,7 @@
         <v>62</v>
       </c>
       <c r="E94" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F94">
         <v>2024</v>
@@ -3438,7 +3451,7 @@
         <v>115</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F96">
         <v>2024</v>
@@ -3490,7 +3503,7 @@
         <v>117</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F98">
         <v>2024</v>
@@ -3502,7 +3515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3568,7 +3581,7 @@
         <v>17</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F101">
         <v>2024</v>
@@ -3620,7 +3633,7 @@
         <v>120</v>
       </c>
       <c r="E103" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="F103">
         <v>2024</v>
@@ -3698,7 +3711,7 @@
         <v>122</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F106">
         <v>2024</v>
@@ -3750,7 +3763,7 @@
         <v>123</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="F108">
         <v>2024</v>
@@ -3802,7 +3815,7 @@
         <v>123</v>
       </c>
       <c r="E110" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="F110">
         <v>2024</v>
@@ -3854,7 +3867,7 @@
         <v>126</v>
       </c>
       <c r="E112" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="F112">
         <v>2024</v>
@@ -3906,7 +3919,7 @@
         <v>22</v>
       </c>
       <c r="E114" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="F114">
         <v>2024</v>
@@ -3944,7 +3957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -3958,7 +3971,7 @@
         <v>48</v>
       </c>
       <c r="E116" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F116">
         <v>2024</v>
@@ -4010,7 +4023,7 @@
         <v>92</v>
       </c>
       <c r="E118" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F118">
         <v>2024</v>
@@ -4036,7 +4049,7 @@
         <v>73</v>
       </c>
       <c r="E119" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="F119">
         <v>2024</v>
@@ -4114,7 +4127,7 @@
         <v>130</v>
       </c>
       <c r="E122" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F122">
         <v>2024</v>
@@ -4166,7 +4179,7 @@
         <v>38</v>
       </c>
       <c r="E124" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F124">
         <v>2024</v>
@@ -4218,7 +4231,7 @@
         <v>132</v>
       </c>
       <c r="E126" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="F126">
         <v>2024</v>
@@ -4244,7 +4257,7 @@
         <v>133</v>
       </c>
       <c r="E127" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F127">
         <v>2024</v>
@@ -4256,7 +4269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -4348,7 +4361,7 @@
         <v>62</v>
       </c>
       <c r="E131" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F131">
         <v>2024</v>
@@ -4400,7 +4413,7 @@
         <v>137</v>
       </c>
       <c r="E133" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="F133">
         <v>2024</v>
@@ -4438,7 +4451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -4504,7 +4517,7 @@
         <v>139</v>
       </c>
       <c r="E137" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F137">
         <v>2024</v>
@@ -4568,7 +4581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -4582,7 +4595,7 @@
         <v>73</v>
       </c>
       <c r="E140" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="F140">
         <v>2024</v>
@@ -4646,7 +4659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -4660,7 +4673,7 @@
         <v>143</v>
       </c>
       <c r="E143" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F143">
         <v>2024</v>
@@ -4712,7 +4725,7 @@
         <v>146</v>
       </c>
       <c r="E145" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="F145">
         <v>2024</v>
@@ -4790,7 +4803,7 @@
         <v>148</v>
       </c>
       <c r="E148" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F148">
         <v>2024</v>
@@ -4842,7 +4855,7 @@
         <v>150</v>
       </c>
       <c r="E150" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="F150">
         <v>2024</v>
@@ -4894,7 +4907,7 @@
         <v>152</v>
       </c>
       <c r="E152" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="F152">
         <v>2024</v>
@@ -4946,7 +4959,7 @@
         <v>155</v>
       </c>
       <c r="E154" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="F154">
         <v>2024</v>
@@ -5050,7 +5063,7 @@
         <v>158</v>
       </c>
       <c r="E158" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="F158">
         <v>2024</v>
@@ -5128,7 +5141,7 @@
         <v>44</v>
       </c>
       <c r="E161" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="F161">
         <v>2024</v>
@@ -5206,7 +5219,7 @@
         <v>38</v>
       </c>
       <c r="E164" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F164">
         <v>2024</v>
@@ -5258,7 +5271,7 @@
         <v>66</v>
       </c>
       <c r="E166" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F166">
         <v>2024</v>
@@ -5296,7 +5309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>9</v>
       </c>
@@ -5310,7 +5323,7 @@
         <v>33</v>
       </c>
       <c r="E168" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F168">
         <v>2024</v>
@@ -5374,7 +5387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -5414,7 +5427,7 @@
         <v>167</v>
       </c>
       <c r="E172" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="F172">
         <v>2024</v>
@@ -5452,7 +5465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>9</v>
       </c>
@@ -5466,7 +5479,7 @@
         <v>170</v>
       </c>
       <c r="E174" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F174">
         <v>2024</v>
@@ -5478,7 +5491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -5570,7 +5583,7 @@
         <v>174</v>
       </c>
       <c r="E178" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="F178">
         <v>2024</v>
@@ -5582,7 +5595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -5648,7 +5661,7 @@
         <v>177</v>
       </c>
       <c r="E181" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="F181">
         <v>2024</v>
@@ -5686,7 +5699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -5700,7 +5713,7 @@
         <v>106</v>
       </c>
       <c r="E183" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F183">
         <v>2024</v>
@@ -5752,7 +5765,7 @@
         <v>33</v>
       </c>
       <c r="E185" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F185">
         <v>2024</v>
@@ -5764,7 +5777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>9</v>
       </c>
@@ -5804,7 +5817,7 @@
         <v>33</v>
       </c>
       <c r="E187" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F187">
         <v>2024</v>
@@ -5946,7 +5959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -5986,7 +5999,7 @@
         <v>90</v>
       </c>
       <c r="E194" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F194">
         <v>2024</v>
@@ -6024,7 +6037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -6284,7 +6297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -6324,7 +6337,7 @@
         <v>83</v>
       </c>
       <c r="E207" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F207">
         <v>2024</v>

--- a/transacoes.xlsx
+++ b/transacoes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,200 +476,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>primeiro valor</t>
+          <t>Salario</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vestiuário</t>
+          <t>Salário</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>4850.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cartão</t>
+          <t>Pix</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10:14:52</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> segundo valor</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Moradia</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 850</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Dinheiro</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G3" t="n">
-        <v>12</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>10:15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> terceiro valor</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Empréstimos</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 260</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Outro</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>10:15:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> quarto valor</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Viajens</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 989</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Pix</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12</v>
-      </c>
-      <c r="H5" t="n">
-        <v>18</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>10:15:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>quinto</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Viajens</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>250.96</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Cartão</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2024</v>
-      </c>
-      <c r="G6" t="n">
-        <v>12</v>
-      </c>
-      <c r="H6" t="n">
-        <v>18</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>10:33:19</t>
+          <t>08:16:39</t>
         </is>
       </c>
     </row>
